--- a/doc/问题记录.xlsx
+++ b/doc/问题记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>问题记录-ipdecap_extend(2015.11.30-)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
   </si>
   <si>
     <t>部分数据包时间戳异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP分片包，offset设置错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -75,6 +71,14 @@
   </si>
   <si>
     <t>这个问题不是程序代码的问题，是wireshark显示时间格式不对；选择view/timeformat 选择UTC time of day即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPP分片包，没有找到GRE_KEY&amp;SEQNUM，导致分片包头包没有匹配上层协议；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP分片包，offset设置错误；程序处理过程中将IP包内PPP数据包段进行处理，并处理成任意字长的payload（其中包括不是8倍数的长度），导致下一个分片写offset时，非法；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,12 +115,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -133,7 +143,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -159,6 +169,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,7 +477,7 @@
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B4" sqref="B4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -511,7 +530,7 @@
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -541,7 +560,7 @@
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -553,7 +572,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -579,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -597,7 +616,7 @@
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
@@ -609,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -627,7 +646,7 @@
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -639,7 +658,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -657,31 +676,38 @@
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+    <row r="8" spans="1:18" s="9" customFormat="1">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11">
+        <v>20151201</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
     </row>
     <row r="9" spans="1:18">
       <c r="B9" s="3"/>

--- a/doc/问题记录.xlsx
+++ b/doc/问题记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>问题记录-ipdecap_extend(2015.11.30-)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>IP分片包，offset设置错误；程序处理过程中将IP包内PPP数据包段进行处理，并处理成任意字长的payload（其中包括不是8倍数的长度），导致下一个分片写offset时，非法；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理数据包错误；P752</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构程序架构；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multi数据包中含有相同key很少，程序已支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,22 +168,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -179,6 +179,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,41 +498,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="3" t="s">
         <v>3</v>
       </c>
@@ -541,16 +553,16 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
       <c r="J3" s="3">
         <v>20151130</v>
       </c>
@@ -571,172 +583,187 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="3">
         <v>20151130</v>
       </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3">
+        <v>20151210</v>
+      </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="N4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="8">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="9">
         <v>20151130</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="4">
+      <c r="K5" s="9"/>
+      <c r="L5" s="10">
         <v>201511301429</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="11" t="s">
+      <c r="M5" s="10"/>
+      <c r="N5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="9">
         <v>20151131</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="5">
+      <c r="K6" s="9"/>
+      <c r="L6" s="11">
         <v>201511301508</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="7" t="s">
+      <c r="M6" s="11"/>
+      <c r="N6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="9">
         <v>20151132</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="5">
+      <c r="K7" s="9"/>
+      <c r="L7" s="11">
         <v>201511301509</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="7" t="s">
+      <c r="M7" s="11"/>
+      <c r="N7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-    </row>
-    <row r="8" spans="1:18" s="2" customFormat="1">
-      <c r="A8" s="2">
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" s="1" customFormat="1">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="6">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="9">
         <v>20151201</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9">
+        <v>20151210</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="1:18" s="2" customFormat="1">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="8">
+        <v>20151210</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -748,14 +775,14 @@
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -767,14 +794,14 @@
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -786,14 +813,14 @@
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -805,14 +832,14 @@
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -824,14 +851,14 @@
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -843,14 +870,14 @@
       <c r="R15" s="3"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -862,14 +889,14 @@
       <c r="R16" s="3"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -881,14 +908,14 @@
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -900,14 +927,14 @@
       <c r="R18" s="3"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -919,14 +946,14 @@
       <c r="R19" s="3"/>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -938,14 +965,14 @@
       <c r="R20" s="3"/>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -957,14 +984,14 @@
       <c r="R21" s="3"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -976,14 +1003,14 @@
       <c r="R22" s="3"/>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -995,14 +1022,14 @@
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -1014,14 +1041,14 @@
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="2:18">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -1033,14 +1060,14 @@
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="2:18">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -1052,14 +1079,14 @@
       <c r="R26" s="3"/>
     </row>
     <row r="27" spans="2:18">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -1071,14 +1098,14 @@
       <c r="R27" s="3"/>
     </row>
     <row r="28" spans="2:18">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -1090,14 +1117,14 @@
       <c r="R28" s="3"/>
     </row>
     <row r="29" spans="2:18">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -1109,14 +1136,14 @@
       <c r="R29" s="3"/>
     </row>
     <row r="30" spans="2:18">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -1128,14 +1155,14 @@
       <c r="R30" s="3"/>
     </row>
     <row r="31" spans="2:18">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -1147,14 +1174,14 @@
       <c r="R31" s="3"/>
     </row>
     <row r="32" spans="2:18">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -1166,14 +1193,14 @@
       <c r="R32" s="3"/>
     </row>
     <row r="33" spans="2:18">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -1185,14 +1212,14 @@
       <c r="R33" s="3"/>
     </row>
     <row r="34" spans="2:18">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -1204,14 +1231,14 @@
       <c r="R34" s="3"/>
     </row>
     <row r="35" spans="2:18">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -1223,14 +1250,14 @@
       <c r="R35" s="3"/>
     </row>
     <row r="36" spans="2:18">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -1242,14 +1269,14 @@
       <c r="R36" s="3"/>
     </row>
     <row r="37" spans="2:18">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -1261,14 +1288,14 @@
       <c r="R37" s="3"/>
     </row>
     <row r="38" spans="2:18">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -1280,14 +1307,14 @@
       <c r="R38" s="3"/>
     </row>
     <row r="39" spans="2:18">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -1299,14 +1326,14 @@
       <c r="R39" s="3"/>
     </row>
     <row r="40" spans="2:18">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -1318,14 +1345,14 @@
       <c r="R40" s="3"/>
     </row>
     <row r="41" spans="2:18">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -1337,14 +1364,14 @@
       <c r="R41" s="3"/>
     </row>
     <row r="42" spans="2:18">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -1356,14 +1383,14 @@
       <c r="R42" s="3"/>
     </row>
     <row r="43" spans="2:18">
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -1375,14 +1402,14 @@
       <c r="R43" s="3"/>
     </row>
     <row r="44" spans="2:18">
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -1394,14 +1421,14 @@
       <c r="R44" s="3"/>
     </row>
     <row r="45" spans="2:18">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -1413,14 +1440,14 @@
       <c r="R45" s="3"/>
     </row>
     <row r="46" spans="2:18">
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -1432,14 +1459,14 @@
       <c r="R46" s="3"/>
     </row>
     <row r="47" spans="2:18">
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -1451,14 +1478,14 @@
       <c r="R47" s="3"/>
     </row>
     <row r="48" spans="2:18">
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -1470,14 +1497,14 @@
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="2:18">
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -1489,14 +1516,14 @@
       <c r="R49" s="3"/>
     </row>
     <row r="50" spans="2:18">
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -1508,14 +1535,14 @@
       <c r="R50" s="3"/>
     </row>
     <row r="51" spans="2:18">
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -1527,14 +1554,14 @@
       <c r="R51" s="3"/>
     </row>
     <row r="52" spans="2:18">
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -1546,14 +1573,14 @@
       <c r="R52" s="3"/>
     </row>
     <row r="53" spans="2:18">
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -1566,49 +1593,148 @@
     </row>
   </sheetData>
   <mergeCells count="209">
-    <mergeCell ref="N47:R47"/>
-    <mergeCell ref="N48:R48"/>
-    <mergeCell ref="N49:R49"/>
-    <mergeCell ref="N50:R50"/>
-    <mergeCell ref="N51:R51"/>
-    <mergeCell ref="N52:R52"/>
-    <mergeCell ref="N53:R53"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="N40:R40"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="N30:R30"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="N32:R32"/>
-    <mergeCell ref="N33:R33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="N20:R20"/>
-    <mergeCell ref="N21:R21"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="N23:R23"/>
-    <mergeCell ref="N24:R24"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="N26:R26"/>
-    <mergeCell ref="N27:R27"/>
-    <mergeCell ref="N28:R28"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
@@ -1633,148 +1759,49 @@
     <mergeCell ref="N8:R8"/>
     <mergeCell ref="N9:R9"/>
     <mergeCell ref="N10:R10"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B51:I51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="N17:R17"/>
+    <mergeCell ref="N18:R18"/>
+    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="N20:R20"/>
+    <mergeCell ref="N21:R21"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="N23:R23"/>
+    <mergeCell ref="N24:R24"/>
+    <mergeCell ref="N25:R25"/>
+    <mergeCell ref="N26:R26"/>
+    <mergeCell ref="N27:R27"/>
+    <mergeCell ref="N28:R28"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="N30:R30"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="N32:R32"/>
+    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="N47:R47"/>
+    <mergeCell ref="N48:R48"/>
+    <mergeCell ref="N49:R49"/>
+    <mergeCell ref="N50:R50"/>
+    <mergeCell ref="N51:R51"/>
+    <mergeCell ref="N52:R52"/>
+    <mergeCell ref="N53:R53"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="N40:R40"/>
+    <mergeCell ref="N41:R41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N46:R46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/问题记录.xlsx
+++ b/doc/问题记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>问题记录-ipdecap_extend(2015.11.30-)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,10 @@
   </si>
   <si>
     <t>multi数据包中含有相同key很少，程序已支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPIP_IP分片包没有处理，导致出来数据包IP字段破损；P83880</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,28 +172,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -489,7 +493,7 @@
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:I14"/>
+      <selection activeCell="L10" sqref="L10:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -498,41 +502,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
       <c r="J2" s="3" t="s">
         <v>3</v>
       </c>
@@ -553,16 +557,16 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="3">
         <v>20151130</v>
       </c>
@@ -583,16 +587,16 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="3">
         <v>20151130</v>
       </c>
@@ -601,170 +605,177 @@
         <v>20151210</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="9">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="6">
         <v>20151130</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10">
+      <c r="K5" s="6"/>
+      <c r="L5" s="4">
         <v>201511301429</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="7" t="s">
+      <c r="M5" s="4"/>
+      <c r="N5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="9">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="6">
         <v>20151131</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="11">
+      <c r="K6" s="6"/>
+      <c r="L6" s="5">
         <v>201511301508</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="5" t="s">
+      <c r="M6" s="5"/>
+      <c r="N6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="9">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="6">
         <v>20151132</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="11">
+      <c r="K7" s="6"/>
+      <c r="L7" s="5">
         <v>201511301509</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="5" t="s">
+      <c r="M7" s="5"/>
+      <c r="N7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
     </row>
     <row r="8" spans="1:18" s="1" customFormat="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="9">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="6">
         <v>20151201</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9">
+      <c r="K8" s="6"/>
+      <c r="L8" s="6">
         <v>20151210</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="7" t="s">
+      <c r="M8" s="6"/>
+      <c r="N8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:18" s="2" customFormat="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="8">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="7">
         <v>20151210</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="3"/>
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="3">
+        <v>20151211</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -775,14 +786,14 @@
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -794,14 +805,14 @@
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -813,14 +824,14 @@
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -832,14 +843,14 @@
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -851,14 +862,14 @@
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -870,14 +881,14 @@
       <c r="R15" s="3"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -889,14 +900,14 @@
       <c r="R16" s="3"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -908,14 +919,14 @@
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -927,14 +938,14 @@
       <c r="R18" s="3"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -946,14 +957,14 @@
       <c r="R19" s="3"/>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -965,14 +976,14 @@
       <c r="R20" s="3"/>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -984,14 +995,14 @@
       <c r="R21" s="3"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -1003,14 +1014,14 @@
       <c r="R22" s="3"/>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -1022,14 +1033,14 @@
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -1041,14 +1052,14 @@
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="2:18">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -1060,14 +1071,14 @@
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="2:18">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -1079,14 +1090,14 @@
       <c r="R26" s="3"/>
     </row>
     <row r="27" spans="2:18">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -1098,14 +1109,14 @@
       <c r="R27" s="3"/>
     </row>
     <row r="28" spans="2:18">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -1117,14 +1128,14 @@
       <c r="R28" s="3"/>
     </row>
     <row r="29" spans="2:18">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -1136,14 +1147,14 @@
       <c r="R29" s="3"/>
     </row>
     <row r="30" spans="2:18">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -1155,14 +1166,14 @@
       <c r="R30" s="3"/>
     </row>
     <row r="31" spans="2:18">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -1174,14 +1185,14 @@
       <c r="R31" s="3"/>
     </row>
     <row r="32" spans="2:18">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -1193,14 +1204,14 @@
       <c r="R32" s="3"/>
     </row>
     <row r="33" spans="2:18">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -1212,14 +1223,14 @@
       <c r="R33" s="3"/>
     </row>
     <row r="34" spans="2:18">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -1231,14 +1242,14 @@
       <c r="R34" s="3"/>
     </row>
     <row r="35" spans="2:18">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -1250,14 +1261,14 @@
       <c r="R35" s="3"/>
     </row>
     <row r="36" spans="2:18">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -1269,14 +1280,14 @@
       <c r="R36" s="3"/>
     </row>
     <row r="37" spans="2:18">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -1288,14 +1299,14 @@
       <c r="R37" s="3"/>
     </row>
     <row r="38" spans="2:18">
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -1307,14 +1318,14 @@
       <c r="R38" s="3"/>
     </row>
     <row r="39" spans="2:18">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -1326,14 +1337,14 @@
       <c r="R39" s="3"/>
     </row>
     <row r="40" spans="2:18">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -1345,14 +1356,14 @@
       <c r="R40" s="3"/>
     </row>
     <row r="41" spans="2:18">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -1364,14 +1375,14 @@
       <c r="R41" s="3"/>
     </row>
     <row r="42" spans="2:18">
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -1383,14 +1394,14 @@
       <c r="R42" s="3"/>
     </row>
     <row r="43" spans="2:18">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -1402,14 +1413,14 @@
       <c r="R43" s="3"/>
     </row>
     <row r="44" spans="2:18">
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -1421,14 +1432,14 @@
       <c r="R44" s="3"/>
     </row>
     <row r="45" spans="2:18">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -1440,14 +1451,14 @@
       <c r="R45" s="3"/>
     </row>
     <row r="46" spans="2:18">
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -1459,14 +1470,14 @@
       <c r="R46" s="3"/>
     </row>
     <row r="47" spans="2:18">
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -1478,14 +1489,14 @@
       <c r="R47" s="3"/>
     </row>
     <row r="48" spans="2:18">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -1497,14 +1508,14 @@
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="2:18">
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -1516,14 +1527,14 @@
       <c r="R49" s="3"/>
     </row>
     <row r="50" spans="2:18">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -1535,14 +1546,14 @@
       <c r="R50" s="3"/>
     </row>
     <row r="51" spans="2:18">
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -1554,14 +1565,14 @@
       <c r="R51" s="3"/>
     </row>
     <row r="52" spans="2:18">
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -1573,14 +1584,14 @@
       <c r="R52" s="3"/>
     </row>
     <row r="53" spans="2:18">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -1593,44 +1604,153 @@
     </row>
   </sheetData>
   <mergeCells count="209">
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N47:R47"/>
+    <mergeCell ref="N48:R48"/>
+    <mergeCell ref="N49:R49"/>
+    <mergeCell ref="N50:R50"/>
+    <mergeCell ref="N51:R51"/>
+    <mergeCell ref="N52:R52"/>
+    <mergeCell ref="N53:R53"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="N40:R40"/>
+    <mergeCell ref="N41:R41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="N30:R30"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="N32:R32"/>
+    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="N20:R20"/>
+    <mergeCell ref="N21:R21"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="N23:R23"/>
+    <mergeCell ref="N24:R24"/>
+    <mergeCell ref="N25:R25"/>
+    <mergeCell ref="N26:R26"/>
+    <mergeCell ref="N27:R27"/>
+    <mergeCell ref="N28:R28"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="N17:R17"/>
+    <mergeCell ref="N18:R18"/>
+    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
@@ -1655,153 +1775,44 @@
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B51:I51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="N19:R19"/>
-    <mergeCell ref="N20:R20"/>
-    <mergeCell ref="N21:R21"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="N23:R23"/>
-    <mergeCell ref="N24:R24"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="N26:R26"/>
-    <mergeCell ref="N27:R27"/>
-    <mergeCell ref="N28:R28"/>
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="N30:R30"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="N32:R32"/>
-    <mergeCell ref="N33:R33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="N47:R47"/>
-    <mergeCell ref="N48:R48"/>
-    <mergeCell ref="N49:R49"/>
-    <mergeCell ref="N50:R50"/>
-    <mergeCell ref="N51:R51"/>
-    <mergeCell ref="N52:R52"/>
-    <mergeCell ref="N53:R53"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="N40:R40"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/问题记录.xlsx
+++ b/doc/问题记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>问题记录-ipdecap_extend(2015.11.30-)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>所有协议都使用IP分片包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新版本测试:GRE数据包头识别有误；P.21806；之后处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -171,22 +175,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -486,7 +490,7 @@
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:I15"/>
+      <selection activeCell="J11" sqref="J11:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -495,41 +499,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
@@ -550,16 +554,16 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="2">
         <v>20151130</v>
       </c>
@@ -580,16 +584,16 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="2">
         <v>20151130</v>
       </c>
@@ -598,204 +602,211 @@
         <v>20151210</v>
       </c>
       <c r="M4" s="2"/>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="5">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="6">
         <v>20151130</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="3">
+      <c r="K5" s="6"/>
+      <c r="L5" s="7">
         <v>201511301429</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="7" t="s">
+      <c r="M5" s="7"/>
+      <c r="N5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="5">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="6">
         <v>20151131</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="4">
+      <c r="K6" s="6"/>
+      <c r="L6" s="8">
         <v>201511301508</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="6" t="s">
+      <c r="M6" s="8"/>
+      <c r="N6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="5">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="6">
         <v>20151132</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="4">
+      <c r="K7" s="6"/>
+      <c r="L7" s="8">
         <v>201511301509</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="6" t="s">
+      <c r="M7" s="8"/>
+      <c r="N7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:18" s="1" customFormat="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="5">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="6">
         <v>20151201</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5">
+      <c r="K8" s="6"/>
+      <c r="L8" s="6">
         <v>20151210</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="7" t="s">
+      <c r="M8" s="6"/>
+      <c r="N8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18" s="1" customFormat="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="5">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="6">
         <v>20151210</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5">
+      <c r="K9" s="6"/>
+      <c r="L9" s="6">
         <v>20151211</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5" t="s">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
     </row>
     <row r="10" spans="1:18" s="1" customFormat="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="5">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="6">
         <v>20151211</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5">
+      <c r="K10" s="6"/>
+      <c r="L10" s="6">
         <v>20151211</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="7" t="s">
+      <c r="M10" s="6"/>
+      <c r="N10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="2"/>
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="2">
+        <v>20151217</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -806,14 +817,14 @@
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -825,14 +836,14 @@
       <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -844,14 +855,14 @@
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -863,14 +874,14 @@
       <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -882,14 +893,14 @@
       <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -901,14 +912,14 @@
       <c r="R16" s="2"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -920,14 +931,14 @@
       <c r="R17" s="2"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -939,14 +950,14 @@
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -958,14 +969,14 @@
       <c r="R19" s="2"/>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -977,14 +988,14 @@
       <c r="R20" s="2"/>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -996,14 +1007,14 @@
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1015,14 +1026,14 @@
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1034,14 +1045,14 @@
       <c r="R23" s="2"/>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1053,14 +1064,14 @@
       <c r="R24" s="2"/>
     </row>
     <row r="25" spans="2:18">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1072,14 +1083,14 @@
       <c r="R25" s="2"/>
     </row>
     <row r="26" spans="2:18">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -1091,14 +1102,14 @@
       <c r="R26" s="2"/>
     </row>
     <row r="27" spans="2:18">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -1110,14 +1121,14 @@
       <c r="R27" s="2"/>
     </row>
     <row r="28" spans="2:18">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1129,14 +1140,14 @@
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="2:18">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1148,14 +1159,14 @@
       <c r="R29" s="2"/>
     </row>
     <row r="30" spans="2:18">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -1167,14 +1178,14 @@
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="2:18">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -1186,14 +1197,14 @@
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="2:18">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -1205,14 +1216,14 @@
       <c r="R32" s="2"/>
     </row>
     <row r="33" spans="2:18">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -1224,14 +1235,14 @@
       <c r="R33" s="2"/>
     </row>
     <row r="34" spans="2:18">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -1243,14 +1254,14 @@
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="2:18">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -1262,14 +1273,14 @@
       <c r="R35" s="2"/>
     </row>
     <row r="36" spans="2:18">
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -1281,14 +1292,14 @@
       <c r="R36" s="2"/>
     </row>
     <row r="37" spans="2:18">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -1300,14 +1311,14 @@
       <c r="R37" s="2"/>
     </row>
     <row r="38" spans="2:18">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -1319,14 +1330,14 @@
       <c r="R38" s="2"/>
     </row>
     <row r="39" spans="2:18">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -1338,14 +1349,14 @@
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="2:18">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -1357,14 +1368,14 @@
       <c r="R40" s="2"/>
     </row>
     <row r="41" spans="2:18">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -1376,14 +1387,14 @@
       <c r="R41" s="2"/>
     </row>
     <row r="42" spans="2:18">
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -1395,14 +1406,14 @@
       <c r="R42" s="2"/>
     </row>
     <row r="43" spans="2:18">
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -1414,14 +1425,14 @@
       <c r="R43" s="2"/>
     </row>
     <row r="44" spans="2:18">
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -1433,14 +1444,14 @@
       <c r="R44" s="2"/>
     </row>
     <row r="45" spans="2:18">
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -1452,14 +1463,14 @@
       <c r="R45" s="2"/>
     </row>
     <row r="46" spans="2:18">
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -1471,14 +1482,14 @@
       <c r="R46" s="2"/>
     </row>
     <row r="47" spans="2:18">
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -1490,14 +1501,14 @@
       <c r="R47" s="2"/>
     </row>
     <row r="48" spans="2:18">
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -1509,14 +1520,14 @@
       <c r="R48" s="2"/>
     </row>
     <row r="49" spans="2:18">
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -1528,14 +1539,14 @@
       <c r="R49" s="2"/>
     </row>
     <row r="50" spans="2:18">
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -1547,14 +1558,14 @@
       <c r="R50" s="2"/>
     </row>
     <row r="51" spans="2:18">
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -1566,14 +1577,14 @@
       <c r="R51" s="2"/>
     </row>
     <row r="52" spans="2:18">
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -1585,14 +1596,14 @@
       <c r="R52" s="2"/>
     </row>
     <row r="53" spans="2:18">
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -1605,49 +1616,148 @@
     </row>
   </sheetData>
   <mergeCells count="209">
-    <mergeCell ref="N47:R47"/>
-    <mergeCell ref="N48:R48"/>
-    <mergeCell ref="N49:R49"/>
-    <mergeCell ref="N50:R50"/>
-    <mergeCell ref="N51:R51"/>
-    <mergeCell ref="N52:R52"/>
-    <mergeCell ref="N53:R53"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="N40:R40"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="N30:R30"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="N32:R32"/>
-    <mergeCell ref="N33:R33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="N20:R20"/>
-    <mergeCell ref="N21:R21"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="N23:R23"/>
-    <mergeCell ref="N24:R24"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="N26:R26"/>
-    <mergeCell ref="N27:R27"/>
-    <mergeCell ref="N28:R28"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
@@ -1672,148 +1782,49 @@
     <mergeCell ref="N8:R8"/>
     <mergeCell ref="N9:R9"/>
     <mergeCell ref="N10:R10"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B51:I51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="N17:R17"/>
+    <mergeCell ref="N18:R18"/>
+    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="N20:R20"/>
+    <mergeCell ref="N21:R21"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="N23:R23"/>
+    <mergeCell ref="N24:R24"/>
+    <mergeCell ref="N25:R25"/>
+    <mergeCell ref="N26:R26"/>
+    <mergeCell ref="N27:R27"/>
+    <mergeCell ref="N28:R28"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="N30:R30"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="N32:R32"/>
+    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="N47:R47"/>
+    <mergeCell ref="N48:R48"/>
+    <mergeCell ref="N49:R49"/>
+    <mergeCell ref="N50:R50"/>
+    <mergeCell ref="N51:R51"/>
+    <mergeCell ref="N52:R52"/>
+    <mergeCell ref="N53:R53"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="N40:R40"/>
+    <mergeCell ref="N41:R41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N46:R46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/问题记录.xlsx
+++ b/doc/问题记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>问题记录-ipdecap_extend(2015.11.30-)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,14 @@
   </si>
   <si>
     <t>新版本测试:GRE数据包头识别有误；P.21806；之后处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0.4.2版本测试:GRE数据包重组错误；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展outerid,interid表项，用来校验进来数据包是否是分片包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +498,7 @@
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11:K11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -817,7 +825,12 @@
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="B12" s="4"/>
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -825,11 +838,17 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2">
+        <v>20151217</v>
+      </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="L12" s="2">
+        <v>20151217</v>
+      </c>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="N12" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>

--- a/doc/问题记录.xlsx
+++ b/doc/问题记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>问题记录-ipdecap_extend(2015.11.30-)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,10 @@
   </si>
   <si>
     <t>扩展outerid,interid表项，用来校验进来数据包是否是分片包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加IP_frag标识，添加GRE协议头处理；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,21 +188,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -498,7 +502,7 @@
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="J20" sqref="J20:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -507,41 +511,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
@@ -562,16 +566,16 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="2">
         <v>20151130</v>
       </c>
@@ -580,28 +584,28 @@
         <v>20151201</v>
       </c>
       <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
       <c r="J4" s="2">
         <v>20151130</v>
       </c>
@@ -610,234 +614,238 @@
         <v>20151210</v>
       </c>
       <c r="M4" s="2"/>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="6">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="3">
         <v>20151130</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7">
+      <c r="K5" s="3"/>
+      <c r="L5" s="4">
         <v>201511301429</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="3" t="s">
+      <c r="M5" s="4"/>
+      <c r="N5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="6">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="3">
         <v>20151131</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="8">
+      <c r="K6" s="3"/>
+      <c r="L6" s="5">
         <v>201511301508</v>
       </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="4" t="s">
+      <c r="M6" s="5"/>
+      <c r="N6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="6">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="3">
         <v>20151132</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="8">
+      <c r="K7" s="3"/>
+      <c r="L7" s="5">
         <v>201511301509</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="4" t="s">
+      <c r="M7" s="5"/>
+      <c r="N7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" s="1" customFormat="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="6">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="3">
         <v>20151201</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3">
         <v>20151210</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="3" t="s">
+      <c r="M8" s="3"/>
+      <c r="N8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
     </row>
     <row r="9" spans="1:18" s="1" customFormat="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="6">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="3">
         <v>20151210</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3">
         <v>20151211</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6" t="s">
+      <c r="M9" s="3"/>
+      <c r="N9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" s="1" customFormat="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="6">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="3">
         <v>20151211</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6">
+      <c r="K10" s="3"/>
+      <c r="L10" s="3">
         <v>20151211</v>
       </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="3" t="s">
+      <c r="M10" s="3"/>
+      <c r="N10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
       <c r="J11" s="2">
         <v>20151217</v>
       </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="L11" s="2">
+        <v>20151218</v>
+      </c>
       <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="N11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
       <c r="J12" s="2">
         <v>20151217</v>
       </c>
@@ -846,23 +854,23 @@
         <v>20151217</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -874,14 +882,14 @@
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -893,14 +901,14 @@
       <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -912,14 +920,14 @@
       <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -931,14 +939,14 @@
       <c r="R16" s="2"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -950,14 +958,14 @@
       <c r="R17" s="2"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -969,14 +977,14 @@
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -988,14 +996,14 @@
       <c r="R19" s="2"/>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1007,14 +1015,14 @@
       <c r="R20" s="2"/>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1026,14 +1034,14 @@
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1045,14 +1053,14 @@
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1064,14 +1072,14 @@
       <c r="R23" s="2"/>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1083,14 +1091,14 @@
       <c r="R24" s="2"/>
     </row>
     <row r="25" spans="2:18">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1102,14 +1110,14 @@
       <c r="R25" s="2"/>
     </row>
     <row r="26" spans="2:18">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -1121,14 +1129,14 @@
       <c r="R26" s="2"/>
     </row>
     <row r="27" spans="2:18">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -1140,14 +1148,14 @@
       <c r="R27" s="2"/>
     </row>
     <row r="28" spans="2:18">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1159,14 +1167,14 @@
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="2:18">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1178,14 +1186,14 @@
       <c r="R29" s="2"/>
     </row>
     <row r="30" spans="2:18">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -1197,14 +1205,14 @@
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="2:18">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -1216,14 +1224,14 @@
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="2:18">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -1235,14 +1243,14 @@
       <c r="R32" s="2"/>
     </row>
     <row r="33" spans="2:18">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -1254,14 +1262,14 @@
       <c r="R33" s="2"/>
     </row>
     <row r="34" spans="2:18">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -1273,14 +1281,14 @@
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="2:18">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -1292,14 +1300,14 @@
       <c r="R35" s="2"/>
     </row>
     <row r="36" spans="2:18">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -1311,14 +1319,14 @@
       <c r="R36" s="2"/>
     </row>
     <row r="37" spans="2:18">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -1330,14 +1338,14 @@
       <c r="R37" s="2"/>
     </row>
     <row r="38" spans="2:18">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -1349,14 +1357,14 @@
       <c r="R38" s="2"/>
     </row>
     <row r="39" spans="2:18">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -1368,14 +1376,14 @@
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="2:18">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -1387,14 +1395,14 @@
       <c r="R40" s="2"/>
     </row>
     <row r="41" spans="2:18">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -1406,14 +1414,14 @@
       <c r="R41" s="2"/>
     </row>
     <row r="42" spans="2:18">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -1425,14 +1433,14 @@
       <c r="R42" s="2"/>
     </row>
     <row r="43" spans="2:18">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -1444,14 +1452,14 @@
       <c r="R43" s="2"/>
     </row>
     <row r="44" spans="2:18">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -1463,14 +1471,14 @@
       <c r="R44" s="2"/>
     </row>
     <row r="45" spans="2:18">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -1482,14 +1490,14 @@
       <c r="R45" s="2"/>
     </row>
     <row r="46" spans="2:18">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -1501,14 +1509,14 @@
       <c r="R46" s="2"/>
     </row>
     <row r="47" spans="2:18">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -1520,14 +1528,14 @@
       <c r="R47" s="2"/>
     </row>
     <row r="48" spans="2:18">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -1539,14 +1547,14 @@
       <c r="R48" s="2"/>
     </row>
     <row r="49" spans="2:18">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -1558,14 +1566,14 @@
       <c r="R49" s="2"/>
     </row>
     <row r="50" spans="2:18">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -1577,14 +1585,14 @@
       <c r="R50" s="2"/>
     </row>
     <row r="51" spans="2:18">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -1596,14 +1604,14 @@
       <c r="R51" s="2"/>
     </row>
     <row r="52" spans="2:18">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -1615,14 +1623,14 @@
       <c r="R52" s="2"/>
     </row>
     <row r="53" spans="2:18">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -1635,44 +1643,153 @@
     </row>
   </sheetData>
   <mergeCells count="209">
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N47:R47"/>
+    <mergeCell ref="N48:R48"/>
+    <mergeCell ref="N49:R49"/>
+    <mergeCell ref="N50:R50"/>
+    <mergeCell ref="N51:R51"/>
+    <mergeCell ref="N52:R52"/>
+    <mergeCell ref="N53:R53"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="N40:R40"/>
+    <mergeCell ref="N41:R41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="N30:R30"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="N32:R32"/>
+    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="N20:R20"/>
+    <mergeCell ref="N21:R21"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="N23:R23"/>
+    <mergeCell ref="N24:R24"/>
+    <mergeCell ref="N25:R25"/>
+    <mergeCell ref="N26:R26"/>
+    <mergeCell ref="N27:R27"/>
+    <mergeCell ref="N28:R28"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="N17:R17"/>
+    <mergeCell ref="N18:R18"/>
+    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
@@ -1697,153 +1814,44 @@
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B51:I51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="N19:R19"/>
-    <mergeCell ref="N20:R20"/>
-    <mergeCell ref="N21:R21"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="N23:R23"/>
-    <mergeCell ref="N24:R24"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="N26:R26"/>
-    <mergeCell ref="N27:R27"/>
-    <mergeCell ref="N28:R28"/>
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="N30:R30"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="N32:R32"/>
-    <mergeCell ref="N33:R33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="N47:R47"/>
-    <mergeCell ref="N48:R48"/>
-    <mergeCell ref="N49:R49"/>
-    <mergeCell ref="N50:R50"/>
-    <mergeCell ref="N51:R51"/>
-    <mergeCell ref="N52:R52"/>
-    <mergeCell ref="N53:R53"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="N40:R40"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
